--- a/xlsx/蘇聯解體_intext.xlsx
+++ b/xlsx/蘇聯解體_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1614">
   <si>
     <t>蘇聯解體</t>
   </si>
@@ -29,7 +29,7 @@
     <t>俄罗斯历史</t>
   </si>
   <si>
-    <t>政策_政策_美國_蘇聯解體</t>
+    <t>体育运动_体育运动_苏联_蘇聯解體</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%96%AF%E4%BA%BA</t>
@@ -3426,6 +3426,12 @@
   </si>
   <si>
     <t>黎巴嫩內戰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%B9%E9%9D%A9%E5%BC%80%E6%94%BE</t>
+  </si>
+  <si>
+    <t>改革开放</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E8%B6%8A%E6%88%B0%E7%88%AD</t>
@@ -5199,7 +5205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I870"/>
+  <dimension ref="A1:I871"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23465,7 +23471,7 @@
         <v>1172</v>
       </c>
       <c r="G630" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H630" t="s">
         <v>4</v>
@@ -23494,7 +23500,7 @@
         <v>1174</v>
       </c>
       <c r="G631" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H631" t="s">
         <v>4</v>
@@ -23639,7 +23645,7 @@
         <v>1184</v>
       </c>
       <c r="G636" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H636" t="s">
         <v>4</v>
@@ -23668,7 +23674,7 @@
         <v>1186</v>
       </c>
       <c r="G637" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H637" t="s">
         <v>4</v>
@@ -23720,10 +23726,10 @@
         <v>638</v>
       </c>
       <c r="E639" t="s">
-        <v>977</v>
+        <v>1189</v>
       </c>
       <c r="F639" t="s">
-        <v>978</v>
+        <v>1190</v>
       </c>
       <c r="G639" t="n">
         <v>1</v>
@@ -23749,10 +23755,10 @@
         <v>639</v>
       </c>
       <c r="E640" t="s">
-        <v>1189</v>
+        <v>977</v>
       </c>
       <c r="F640" t="s">
-        <v>1190</v>
+        <v>978</v>
       </c>
       <c r="G640" t="n">
         <v>1</v>
@@ -23865,13 +23871,13 @@
         <v>643</v>
       </c>
       <c r="E644" t="s">
-        <v>733</v>
+        <v>1197</v>
       </c>
       <c r="F644" t="s">
-        <v>734</v>
+        <v>1198</v>
       </c>
       <c r="G644" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H644" t="s">
         <v>4</v>
@@ -23894,13 +23900,13 @@
         <v>644</v>
       </c>
       <c r="E645" t="s">
-        <v>1197</v>
+        <v>733</v>
       </c>
       <c r="F645" t="s">
-        <v>1198</v>
+        <v>734</v>
       </c>
       <c r="G645" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H645" t="s">
         <v>4</v>
@@ -23929,7 +23935,7 @@
         <v>1200</v>
       </c>
       <c r="G646" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H646" t="s">
         <v>4</v>
@@ -23952,13 +23958,13 @@
         <v>646</v>
       </c>
       <c r="E647" t="s">
-        <v>741</v>
+        <v>1201</v>
       </c>
       <c r="F647" t="s">
-        <v>742</v>
+        <v>1202</v>
       </c>
       <c r="G647" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H647" t="s">
         <v>4</v>
@@ -23981,10 +23987,10 @@
         <v>647</v>
       </c>
       <c r="E648" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F648" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="G648" t="n">
         <v>1</v>
@@ -24010,13 +24016,13 @@
         <v>648</v>
       </c>
       <c r="E649" t="s">
-        <v>1201</v>
+        <v>743</v>
       </c>
       <c r="F649" t="s">
-        <v>1202</v>
+        <v>744</v>
       </c>
       <c r="G649" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H649" t="s">
         <v>4</v>
@@ -24039,13 +24045,13 @@
         <v>649</v>
       </c>
       <c r="E650" t="s">
-        <v>511</v>
+        <v>1203</v>
       </c>
       <c r="F650" t="s">
-        <v>512</v>
+        <v>1204</v>
       </c>
       <c r="G650" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H650" t="s">
         <v>4</v>
@@ -24068,10 +24074,10 @@
         <v>650</v>
       </c>
       <c r="E651" t="s">
-        <v>1203</v>
+        <v>511</v>
       </c>
       <c r="F651" t="s">
-        <v>1204</v>
+        <v>512</v>
       </c>
       <c r="G651" t="n">
         <v>1</v>
@@ -24277,7 +24283,7 @@
         <v>1218</v>
       </c>
       <c r="G658" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H658" t="s">
         <v>4</v>
@@ -24306,7 +24312,7 @@
         <v>1220</v>
       </c>
       <c r="G659" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H659" t="s">
         <v>4</v>
@@ -24387,13 +24393,13 @@
         <v>661</v>
       </c>
       <c r="E662" t="s">
-        <v>371</v>
+        <v>1225</v>
       </c>
       <c r="F662" t="s">
-        <v>372</v>
+        <v>1226</v>
       </c>
       <c r="G662" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H662" t="s">
         <v>4</v>
@@ -24416,13 +24422,13 @@
         <v>662</v>
       </c>
       <c r="E663" t="s">
-        <v>1225</v>
+        <v>371</v>
       </c>
       <c r="F663" t="s">
-        <v>1226</v>
+        <v>372</v>
       </c>
       <c r="G663" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H663" t="s">
         <v>4</v>
@@ -24706,10 +24712,10 @@
         <v>672</v>
       </c>
       <c r="E673" t="s">
-        <v>899</v>
+        <v>1245</v>
       </c>
       <c r="F673" t="s">
-        <v>900</v>
+        <v>1246</v>
       </c>
       <c r="G673" t="n">
         <v>1</v>
@@ -24735,10 +24741,10 @@
         <v>673</v>
       </c>
       <c r="E674" t="s">
-        <v>1245</v>
+        <v>899</v>
       </c>
       <c r="F674" t="s">
-        <v>1246</v>
+        <v>900</v>
       </c>
       <c r="G674" t="n">
         <v>1</v>
@@ -25605,10 +25611,10 @@
         <v>703</v>
       </c>
       <c r="E704" t="s">
-        <v>923</v>
+        <v>1305</v>
       </c>
       <c r="F704" t="s">
-        <v>924</v>
+        <v>1306</v>
       </c>
       <c r="G704" t="n">
         <v>1</v>
@@ -25634,10 +25640,10 @@
         <v>704</v>
       </c>
       <c r="E705" t="s">
-        <v>1305</v>
+        <v>923</v>
       </c>
       <c r="F705" t="s">
-        <v>1306</v>
+        <v>924</v>
       </c>
       <c r="G705" t="n">
         <v>1</v>
@@ -25785,7 +25791,7 @@
         <v>1316</v>
       </c>
       <c r="G710" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H710" t="s">
         <v>4</v>
@@ -25814,7 +25820,7 @@
         <v>1318</v>
       </c>
       <c r="G711" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H711" t="s">
         <v>4</v>
@@ -26104,7 +26110,7 @@
         <v>1338</v>
       </c>
       <c r="G721" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H721" t="s">
         <v>4</v>
@@ -26133,7 +26139,7 @@
         <v>1340</v>
       </c>
       <c r="G722" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H722" t="s">
         <v>4</v>
@@ -26359,10 +26365,10 @@
         <v>729</v>
       </c>
       <c r="E730" t="s">
-        <v>243</v>
+        <v>1355</v>
       </c>
       <c r="F730" t="s">
-        <v>244</v>
+        <v>1356</v>
       </c>
       <c r="G730" t="n">
         <v>1</v>
@@ -26388,13 +26394,13 @@
         <v>730</v>
       </c>
       <c r="E731" t="s">
-        <v>1355</v>
+        <v>243</v>
       </c>
       <c r="F731" t="s">
-        <v>1356</v>
+        <v>244</v>
       </c>
       <c r="G731" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H731" t="s">
         <v>4</v>
@@ -26423,7 +26429,7 @@
         <v>1358</v>
       </c>
       <c r="G732" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H732" t="s">
         <v>4</v>
@@ -26794,10 +26800,10 @@
         <v>744</v>
       </c>
       <c r="E745" t="s">
-        <v>1251</v>
+        <v>1383</v>
       </c>
       <c r="F745" t="s">
-        <v>1252</v>
+        <v>1384</v>
       </c>
       <c r="G745" t="n">
         <v>1</v>
@@ -26823,10 +26829,10 @@
         <v>745</v>
       </c>
       <c r="E746" t="s">
-        <v>1383</v>
+        <v>1253</v>
       </c>
       <c r="F746" t="s">
-        <v>1384</v>
+        <v>1254</v>
       </c>
       <c r="G746" t="n">
         <v>1</v>
@@ -26910,10 +26916,10 @@
         <v>748</v>
       </c>
       <c r="E749" t="s">
-        <v>483</v>
+        <v>1389</v>
       </c>
       <c r="F749" t="s">
-        <v>484</v>
+        <v>1390</v>
       </c>
       <c r="G749" t="n">
         <v>1</v>
@@ -26939,10 +26945,10 @@
         <v>749</v>
       </c>
       <c r="E750" t="s">
-        <v>1389</v>
+        <v>483</v>
       </c>
       <c r="F750" t="s">
-        <v>1390</v>
+        <v>484</v>
       </c>
       <c r="G750" t="n">
         <v>1</v>
@@ -26968,10 +26974,10 @@
         <v>750</v>
       </c>
       <c r="E751" t="s">
-        <v>739</v>
+        <v>1391</v>
       </c>
       <c r="F751" t="s">
-        <v>740</v>
+        <v>1392</v>
       </c>
       <c r="G751" t="n">
         <v>1</v>
@@ -26997,10 +27003,10 @@
         <v>751</v>
       </c>
       <c r="E752" t="s">
-        <v>1201</v>
+        <v>739</v>
       </c>
       <c r="F752" t="s">
-        <v>1202</v>
+        <v>740</v>
       </c>
       <c r="G752" t="n">
         <v>1</v>
@@ -27026,10 +27032,10 @@
         <v>752</v>
       </c>
       <c r="E753" t="s">
-        <v>1391</v>
+        <v>1203</v>
       </c>
       <c r="F753" t="s">
-        <v>1392</v>
+        <v>1204</v>
       </c>
       <c r="G753" t="n">
         <v>1</v>
@@ -27084,13 +27090,13 @@
         <v>754</v>
       </c>
       <c r="E755" t="s">
-        <v>509</v>
+        <v>1395</v>
       </c>
       <c r="F755" t="s">
-        <v>510</v>
+        <v>1396</v>
       </c>
       <c r="G755" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H755" t="s">
         <v>4</v>
@@ -27113,13 +27119,13 @@
         <v>755</v>
       </c>
       <c r="E756" t="s">
-        <v>1395</v>
+        <v>509</v>
       </c>
       <c r="F756" t="s">
-        <v>1396</v>
+        <v>510</v>
       </c>
       <c r="G756" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H756" t="s">
         <v>4</v>
@@ -27148,7 +27154,7 @@
         <v>1398</v>
       </c>
       <c r="G757" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H757" t="s">
         <v>4</v>
@@ -27177,7 +27183,7 @@
         <v>1400</v>
       </c>
       <c r="G758" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H758" t="s">
         <v>4</v>
@@ -27206,7 +27212,7 @@
         <v>1402</v>
       </c>
       <c r="G759" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H759" t="s">
         <v>4</v>
@@ -27235,7 +27241,7 @@
         <v>1404</v>
       </c>
       <c r="G760" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H760" t="s">
         <v>4</v>
@@ -27264,7 +27270,7 @@
         <v>1406</v>
       </c>
       <c r="G761" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H761" t="s">
         <v>4</v>
@@ -27293,7 +27299,7 @@
         <v>1408</v>
       </c>
       <c r="G762" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H762" t="s">
         <v>4</v>
@@ -27322,7 +27328,7 @@
         <v>1410</v>
       </c>
       <c r="G763" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H763" t="s">
         <v>4</v>
@@ -27380,7 +27386,7 @@
         <v>1414</v>
       </c>
       <c r="G765" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H765" t="s">
         <v>4</v>
@@ -27409,7 +27415,7 @@
         <v>1416</v>
       </c>
       <c r="G766" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H766" t="s">
         <v>4</v>
@@ -27438,7 +27444,7 @@
         <v>1418</v>
       </c>
       <c r="G767" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H767" t="s">
         <v>4</v>
@@ -27467,7 +27473,7 @@
         <v>1420</v>
       </c>
       <c r="G768" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H768" t="s">
         <v>4</v>
@@ -27519,13 +27525,13 @@
         <v>769</v>
       </c>
       <c r="E770" t="s">
-        <v>1203</v>
+        <v>1423</v>
       </c>
       <c r="F770" t="s">
-        <v>1204</v>
+        <v>1424</v>
       </c>
       <c r="G770" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H770" t="s">
         <v>4</v>
@@ -27548,13 +27554,13 @@
         <v>770</v>
       </c>
       <c r="E771" t="s">
-        <v>1423</v>
+        <v>1205</v>
       </c>
       <c r="F771" t="s">
-        <v>1424</v>
+        <v>1206</v>
       </c>
       <c r="G771" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H771" t="s">
         <v>4</v>
@@ -27583,7 +27589,7 @@
         <v>1426</v>
       </c>
       <c r="G772" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H772" t="s">
         <v>4</v>
@@ -27693,10 +27699,10 @@
         <v>775</v>
       </c>
       <c r="E776" t="s">
-        <v>503</v>
+        <v>1433</v>
       </c>
       <c r="F776" t="s">
-        <v>504</v>
+        <v>1434</v>
       </c>
       <c r="G776" t="n">
         <v>1</v>
@@ -27722,10 +27728,10 @@
         <v>776</v>
       </c>
       <c r="E777" t="s">
-        <v>1433</v>
+        <v>503</v>
       </c>
       <c r="F777" t="s">
-        <v>1434</v>
+        <v>504</v>
       </c>
       <c r="G777" t="n">
         <v>1</v>
@@ -27925,10 +27931,10 @@
         <v>783</v>
       </c>
       <c r="E784" t="s">
-        <v>513</v>
+        <v>1447</v>
       </c>
       <c r="F784" t="s">
-        <v>514</v>
+        <v>1448</v>
       </c>
       <c r="G784" t="n">
         <v>1</v>
@@ -27954,10 +27960,10 @@
         <v>784</v>
       </c>
       <c r="E785" t="s">
-        <v>1447</v>
+        <v>513</v>
       </c>
       <c r="F785" t="s">
-        <v>1448</v>
+        <v>514</v>
       </c>
       <c r="G785" t="n">
         <v>1</v>
@@ -27989,7 +27995,7 @@
         <v>1450</v>
       </c>
       <c r="G786" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H786" t="s">
         <v>4</v>
@@ -28018,7 +28024,7 @@
         <v>1452</v>
       </c>
       <c r="G787" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H787" t="s">
         <v>4</v>
@@ -28099,13 +28105,13 @@
         <v>789</v>
       </c>
       <c r="E790" t="s">
-        <v>427</v>
+        <v>1457</v>
       </c>
       <c r="F790" t="s">
-        <v>428</v>
+        <v>1458</v>
       </c>
       <c r="G790" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H790" t="s">
         <v>4</v>
@@ -28128,13 +28134,13 @@
         <v>790</v>
       </c>
       <c r="E791" t="s">
-        <v>1457</v>
+        <v>427</v>
       </c>
       <c r="F791" t="s">
-        <v>1458</v>
+        <v>428</v>
       </c>
       <c r="G791" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H791" t="s">
         <v>4</v>
@@ -28192,7 +28198,7 @@
         <v>1462</v>
       </c>
       <c r="G793" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H793" t="s">
         <v>4</v>
@@ -28221,7 +28227,7 @@
         <v>1464</v>
       </c>
       <c r="G794" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H794" t="s">
         <v>4</v>
@@ -28308,7 +28314,7 @@
         <v>1470</v>
       </c>
       <c r="G797" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H797" t="s">
         <v>4</v>
@@ -28337,7 +28343,7 @@
         <v>1472</v>
       </c>
       <c r="G798" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H798" t="s">
         <v>4</v>
@@ -28424,7 +28430,7 @@
         <v>1478</v>
       </c>
       <c r="G801" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H801" t="s">
         <v>4</v>
@@ -28453,7 +28459,7 @@
         <v>1480</v>
       </c>
       <c r="G802" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H802" t="s">
         <v>4</v>
@@ -28482,7 +28488,7 @@
         <v>1482</v>
       </c>
       <c r="G803" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H803" t="s">
         <v>4</v>
@@ -28511,7 +28517,7 @@
         <v>1484</v>
       </c>
       <c r="G804" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H804" t="s">
         <v>4</v>
@@ -28627,7 +28633,7 @@
         <v>1492</v>
       </c>
       <c r="G808" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H808" t="s">
         <v>4</v>
@@ -28656,7 +28662,7 @@
         <v>1494</v>
       </c>
       <c r="G809" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H809" t="s">
         <v>4</v>
@@ -28685,7 +28691,7 @@
         <v>1496</v>
       </c>
       <c r="G810" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H810" t="s">
         <v>4</v>
@@ -28714,7 +28720,7 @@
         <v>1498</v>
       </c>
       <c r="G811" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H811" t="s">
         <v>4</v>
@@ -28743,7 +28749,7 @@
         <v>1500</v>
       </c>
       <c r="G812" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H812" t="s">
         <v>4</v>
@@ -28772,7 +28778,7 @@
         <v>1502</v>
       </c>
       <c r="G813" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H813" t="s">
         <v>4</v>
@@ -28859,7 +28865,7 @@
         <v>1508</v>
       </c>
       <c r="G816" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H816" t="s">
         <v>4</v>
@@ -28940,13 +28946,13 @@
         <v>818</v>
       </c>
       <c r="E819" t="s">
-        <v>271</v>
+        <v>1513</v>
       </c>
       <c r="F819" t="s">
-        <v>272</v>
+        <v>1514</v>
       </c>
       <c r="G819" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H819" t="s">
         <v>4</v>
@@ -28969,10 +28975,10 @@
         <v>819</v>
       </c>
       <c r="E820" t="s">
-        <v>1513</v>
+        <v>271</v>
       </c>
       <c r="F820" t="s">
-        <v>1514</v>
+        <v>272</v>
       </c>
       <c r="G820" t="n">
         <v>1</v>
@@ -29033,7 +29039,7 @@
         <v>1518</v>
       </c>
       <c r="G822" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H822" t="s">
         <v>4</v>
@@ -29062,7 +29068,7 @@
         <v>1520</v>
       </c>
       <c r="G823" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H823" t="s">
         <v>4</v>
@@ -29868,10 +29874,10 @@
         <v>850</v>
       </c>
       <c r="E851" t="s">
-        <v>1171</v>
+        <v>1575</v>
       </c>
       <c r="F851" t="s">
-        <v>1172</v>
+        <v>1576</v>
       </c>
       <c r="G851" t="n">
         <v>1</v>
@@ -29897,10 +29903,10 @@
         <v>851</v>
       </c>
       <c r="E852" t="s">
-        <v>1575</v>
+        <v>1173</v>
       </c>
       <c r="F852" t="s">
-        <v>1576</v>
+        <v>1174</v>
       </c>
       <c r="G852" t="n">
         <v>1</v>
@@ -30164,7 +30170,7 @@
         <v>1594</v>
       </c>
       <c r="G861" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H861" t="s">
         <v>4</v>
@@ -30193,7 +30199,7 @@
         <v>1596</v>
       </c>
       <c r="G862" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H862" t="s">
         <v>4</v>
@@ -30396,7 +30402,7 @@
         <v>1610</v>
       </c>
       <c r="G869" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H869" t="s">
         <v>4</v>
@@ -30419,18 +30425,47 @@
         <v>869</v>
       </c>
       <c r="E870" t="s">
-        <v>1609</v>
+        <v>1611</v>
       </c>
       <c r="F870" t="s">
+        <v>1612</v>
+      </c>
+      <c r="G870" t="n">
+        <v>9</v>
+      </c>
+      <c r="H870" t="s">
+        <v>4</v>
+      </c>
+      <c r="I870" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="871" spans="1:9">
+      <c r="A871" s="1" t="n">
+        <v>869</v>
+      </c>
+      <c r="B871" t="s">
+        <v>0</v>
+      </c>
+      <c r="C871" t="s">
+        <v>1</v>
+      </c>
+      <c r="D871" t="n">
+        <v>870</v>
+      </c>
+      <c r="E871" t="s">
         <v>1611</v>
       </c>
-      <c r="G870" t="n">
-        <v>1</v>
-      </c>
-      <c r="H870" t="s">
-        <v>4</v>
-      </c>
-      <c r="I870" t="n">
+      <c r="F871" t="s">
+        <v>1613</v>
+      </c>
+      <c r="G871" t="n">
+        <v>1</v>
+      </c>
+      <c r="H871" t="s">
+        <v>4</v>
+      </c>
+      <c r="I871" t="n">
         <v>3</v>
       </c>
     </row>
